--- a/reports/GLAMorousToHTML_keyfigures_NDE_04092024.xlsx
+++ b/reports/GLAMorousToHTML_keyfigures_NDE_04092024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KB-OPEN\___WikimediaKB\KPIs etc\WikimediaKPIs\GlamorousToHTML\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED739D-C8D7-410A-ADC5-5995940B3FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC95A004-70CD-4137-BD20-A12A8F07332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="26715" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyfigures_NDE_04092024" sheetId="1" r:id="rId1"/>
@@ -1535,9 +1535,6 @@
     <t>The number of subcategories that are taken into account for the report. This is an input paramater of the GLAMorous tool, see column D.</t>
   </si>
   <si>
-    <t>The total number of times that distinct images (from the category tree) show up in Wikipedia articles, in all language versions. This is different from 'Distinct articles', as a single image can illustrate multiple articles and one article can contain multiple images. For illustration, see the example in column D.</t>
-  </si>
-  <si>
     <r>
       <t>URL of the corresponding Excel file of the specified date (</t>
     </r>
@@ -1570,14 +1567,19 @@
     <t>Image reuse percentage</t>
   </si>
   <si>
-    <t>The average number of Wikipedia articles illustrated by a single image. 
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>The average number of times a single image is used to illustrate an article. 
 This is 'Total usages' divided by 'Distinct images used'. 
 This is a measure for the outreach effectiveness of the images that are used in Wikipedia articles. 
-For example, if we look at the Wereldmuseum Rotterdam (column D), we see that (on 04-09-2024) only 3 of their images illustrate no fewer than 79 articles, resulting in an average image reuse of 79/3 = 26.33. These couple of images are very effective in their reach and are seen worldwide! 
-At the other end of the spectrum is the Rijksdienst voor het Cultureel Erfgoed; their 23.471 distinct images 'only' have 31.955 usages, making this number equal 1.36. See colum E.</t>
-  </si>
-  <si>
-    <t>n/a</t>
+For example, if we look at the Wereldmuseum Rotterdam (column D), we see that only 3 of their images show up in articles 79 times, resulting in an average image reuse of 79/3 = 26.33. These couple of images are very effective in their reach and are seen worldwide! 
+At the other end of the spectrum is the Rijksdienst voor het Cultureel Erfgoed (column E) ; their 23.471 distinct images 'only' have 31.955 usages, making this number equal 1.36.</t>
+  </si>
+  <si>
+    <t>The total number of times that distinct images (from the category tree) show up in Wikipedia articles, in all language versions. 
+This is different from 'Distinct articles', as a single image can illustrate multiple articles and v.v,  one article can contain multiple images. 
+For illustration, see the example in column D.</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1816,13 +1818,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,10 +1827,10 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2153,10 +2149,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2167,11 +2163,11 @@
     <col min="4" max="4" width="6.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="30" customWidth="1"/>
     <col min="9" max="9" width="18.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="15" style="30" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="30" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="30" customWidth="1"/>
     <col min="13" max="13" width="21" style="8" customWidth="1"/>
     <col min="14" max="14" width="35.140625" style="5"/>
@@ -2198,19 +2194,19 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>432</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J1" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="31" t="s">
@@ -2232,56 +2228,56 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="E2" s="6" t="str">
         <f t="shared" ref="E2:E33" si="0">HYPERLINK(D2,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>425007</v>
-      </c>
-      <c r="H2" s="7">
-        <v>25884</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="30">
+        <v>6</v>
+      </c>
+      <c r="H2" s="30">
+        <v>6</v>
       </c>
       <c r="I2" s="8">
-        <f>100*H2/G2</f>
-        <v>6.0902526311331346</v>
-      </c>
-      <c r="J2" s="7">
-        <v>100120</v>
-      </c>
-      <c r="K2" s="32">
-        <v>275</v>
-      </c>
-      <c r="L2" s="7">
-        <v>125681</v>
+        <f t="shared" ref="I2:I33" si="1">100*H2/G2</f>
+        <v>100</v>
+      </c>
+      <c r="J2" s="30">
+        <v>4</v>
+      </c>
+      <c r="K2" s="30">
+        <v>2</v>
+      </c>
+      <c r="L2" s="30">
+        <v>8</v>
       </c>
       <c r="M2" s="8">
-        <f>L2/H2</f>
-        <v>4.8555478287745322</v>
+        <f t="shared" ref="M2:M33" si="2">L2/H2</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O2" s="6" t="str">
-        <f t="shared" ref="O2:O33" si="1">HYPERLINK(N2,"Klik")</f>
+        <f t="shared" ref="O2:O33" si="3">HYPERLINK(N2,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="Q2" s="6" t="str">
-        <f t="shared" ref="Q2:Q33" si="2">HYPERLINK(P2,"Klik")</f>
+        <f t="shared" ref="Q2:Q33" si="4">HYPERLINK(P2,"Klik")</f>
         <v>Klik</v>
       </c>
     </row>
@@ -2290,56 +2286,56 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F3" s="7">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>57516</v>
-      </c>
-      <c r="H3" s="7">
-        <v>9014</v>
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>3</v>
+      </c>
+      <c r="H3" s="30">
+        <v>3</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" ref="I3:I66" si="3">100*H3/G3</f>
-        <v>15.672160790041032</v>
-      </c>
-      <c r="J3" s="7">
-        <v>20289</v>
-      </c>
-      <c r="K3" s="32">
-        <v>194</v>
-      </c>
-      <c r="L3" s="7">
-        <v>29958</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J3" s="30">
+        <v>1</v>
+      </c>
+      <c r="K3" s="30">
+        <v>1</v>
+      </c>
+      <c r="L3" s="30">
+        <v>3</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" ref="M3:M66" si="4">L3/H3</f>
-        <v>3.3234967827823385</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="O3" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="Q3" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2348,56 +2344,56 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F4" s="7">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>486346</v>
-      </c>
-      <c r="H4" s="7">
-        <v>23471</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>2</v>
       </c>
       <c r="I4" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J4" s="30">
+        <v>2</v>
+      </c>
+      <c r="K4" s="30">
+        <v>2</v>
+      </c>
+      <c r="L4" s="30">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>4.8259880825585073</v>
-      </c>
-      <c r="J4" s="7">
-        <v>15341</v>
-      </c>
-      <c r="K4" s="32">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7">
-        <v>31955</v>
-      </c>
-      <c r="M4" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q4" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>1.3614673426781987</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="O4" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q4" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2406,56 +2402,56 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F5" s="7">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7">
-        <v>3247</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1119</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30">
+        <v>1</v>
       </c>
       <c r="I5" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="30">
+        <v>3</v>
+      </c>
+      <c r="K5" s="30">
+        <v>2</v>
+      </c>
+      <c r="L5" s="30">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>34.462580843855868</v>
-      </c>
-      <c r="J5" s="7">
-        <v>7257</v>
-      </c>
-      <c r="K5" s="32">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7">
-        <v>14839</v>
-      </c>
-      <c r="M5" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q5" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>13.2609472743521</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="O5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2464,56 +2460,56 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <v>3113</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1480</v>
+      <c r="H6" s="30">
+        <v>1</v>
       </c>
       <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J6" s="30">
+        <v>1</v>
+      </c>
+      <c r="K6" s="30">
+        <v>1</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>47.542563443623514</v>
-      </c>
-      <c r="J6" s="7">
-        <v>6353</v>
-      </c>
-      <c r="K6" s="32">
-        <v>167</v>
-      </c>
-      <c r="L6" s="7">
-        <v>7551</v>
-      </c>
-      <c r="M6" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q6" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>5.1020270270270274</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q6" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2522,56 +2518,56 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>346</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>194097</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3397</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <v>46</v>
+      </c>
+      <c r="H7" s="30">
+        <v>45</v>
       </c>
       <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>97.826086956521735</v>
+      </c>
+      <c r="J7" s="30">
+        <v>146</v>
+      </c>
+      <c r="K7" s="30">
+        <v>38</v>
+      </c>
+      <c r="L7" s="30">
+        <v>200</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="O7" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1.7501558499100964</v>
-      </c>
-      <c r="J7" s="7">
-        <v>6306</v>
-      </c>
-      <c r="K7" s="32">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7">
-        <v>8288</v>
-      </c>
-      <c r="M7" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q7" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>2.4397998233735647</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="O7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q7" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2580,13 +2576,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>347</v>
+        <v>56</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2595,41 +2591,41 @@
       <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
-        <v>30656</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1931</v>
+      <c r="G8" s="30">
+        <v>41</v>
+      </c>
+      <c r="H8" s="30">
+        <v>33</v>
       </c>
       <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>80.487804878048777</v>
+      </c>
+      <c r="J8" s="30">
+        <v>15</v>
+      </c>
+      <c r="K8" s="30">
+        <v>1</v>
+      </c>
+      <c r="L8" s="30">
+        <v>35</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0606060606060606</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O8" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.2989300626304798</v>
-      </c>
-      <c r="J8" s="7">
-        <v>5012</v>
-      </c>
-      <c r="K8" s="32">
-        <v>150</v>
-      </c>
-      <c r="L8" s="7">
-        <v>6368</v>
-      </c>
-      <c r="M8" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>3.2977731745209735</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q8" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2638,56 +2634,56 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>348</v>
+        <v>98</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F9" s="7">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1383</v>
-      </c>
-      <c r="H9" s="5">
-        <v>612</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="30">
+        <v>859</v>
+      </c>
+      <c r="H9" s="30">
+        <v>667</v>
       </c>
       <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>77.648428405122232</v>
+      </c>
+      <c r="J9" s="30">
+        <v>99</v>
+      </c>
+      <c r="K9" s="30">
+        <v>32</v>
+      </c>
+      <c r="L9" s="30">
+        <v>754</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1304347826086956</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>44.251626898047725</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2466</v>
-      </c>
-      <c r="K9" s="32">
-        <v>141</v>
-      </c>
-      <c r="L9" s="7">
-        <v>5575</v>
-      </c>
-      <c r="M9" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>9.109477124183007</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q9" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2696,56 +2692,56 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1495</v>
-      </c>
-      <c r="H10" s="5">
-        <v>266</v>
+        <v>2</v>
+      </c>
+      <c r="G10" s="30">
+        <v>142</v>
+      </c>
+      <c r="H10" s="30">
+        <v>109</v>
       </c>
       <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>76.760563380281695</v>
+      </c>
+      <c r="J10" s="30">
+        <v>340</v>
+      </c>
+      <c r="K10" s="30">
+        <v>40</v>
+      </c>
+      <c r="L10" s="30">
+        <v>363</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="2"/>
+        <v>3.330275229357798</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O10" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>17.792642140468228</v>
-      </c>
-      <c r="J10" s="7">
-        <v>2411</v>
-      </c>
-      <c r="K10" s="32">
-        <v>195</v>
-      </c>
-      <c r="L10" s="7">
-        <v>2526</v>
-      </c>
-      <c r="M10" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q10" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>9.496240601503759</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="O10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2754,56 +2750,56 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>30</v>
+      </c>
+      <c r="H11" s="30">
+        <v>18</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J11" s="30">
+        <v>29</v>
+      </c>
+      <c r="K11" s="30">
+        <v>8</v>
+      </c>
+      <c r="L11" s="30">
+        <v>36</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G11" s="7">
-        <v>13181</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1226</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="N11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O11" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>9.3012669751915631</v>
-      </c>
-      <c r="J11" s="7">
-        <v>2250</v>
-      </c>
-      <c r="K11" s="32">
-        <v>80</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2572</v>
-      </c>
-      <c r="M11" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q11" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>2.0978792822185972</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q11" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2812,56 +2808,56 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F12" s="7">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7">
-        <v>27854</v>
-      </c>
-      <c r="H12" s="5">
-        <v>932</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>5</v>
+      </c>
+      <c r="H12" s="30">
+        <v>3</v>
       </c>
       <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30">
+        <v>3</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>3.3460185251669419</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1976</v>
-      </c>
-      <c r="K12" s="32">
-        <v>98</v>
-      </c>
-      <c r="L12" s="7">
-        <v>2512</v>
-      </c>
-      <c r="M12" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q12" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>2.6952789699570814</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q12" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2870,56 +2866,56 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1964</v>
-      </c>
-      <c r="H13" s="5">
-        <v>595</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="30">
+        <v>148</v>
+      </c>
+      <c r="H13" s="30">
+        <v>84</v>
       </c>
       <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>56.756756756756758</v>
+      </c>
+      <c r="J13" s="30">
+        <v>223</v>
+      </c>
+      <c r="K13" s="30">
+        <v>45</v>
+      </c>
+      <c r="L13" s="30">
+        <v>286</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="2"/>
+        <v>3.4047619047619047</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>30.295315682281061</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1672</v>
-      </c>
-      <c r="K13" s="32">
-        <v>98</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2284</v>
-      </c>
-      <c r="M13" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q13" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>3.8386554621848741</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="O13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q13" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2928,56 +2924,56 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>28966</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1215</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <v>255</v>
+      </c>
+      <c r="H14" s="30">
+        <v>134</v>
       </c>
       <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>52.549019607843135</v>
+      </c>
+      <c r="J14" s="30">
+        <v>113</v>
+      </c>
+      <c r="K14" s="30">
+        <v>24</v>
+      </c>
+      <c r="L14" s="30">
+        <v>273</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0373134328358211</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>4.1945729475937306</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1134</v>
-      </c>
-      <c r="K14" s="32">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1843</v>
-      </c>
-      <c r="M14" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q14" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>1.5168724279835391</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q14" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -2986,56 +2982,56 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F15" s="7">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1169</v>
-      </c>
-      <c r="H15" s="5">
-        <v>282</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>24</v>
+      </c>
+      <c r="H15" s="30">
+        <v>12</v>
       </c>
       <c r="I15" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J15" s="30">
+        <v>23</v>
+      </c>
+      <c r="K15" s="30">
+        <v>7</v>
+      </c>
+      <c r="L15" s="30">
+        <v>23</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>24.123182207014544</v>
-      </c>
-      <c r="J15" s="7">
-        <v>943</v>
-      </c>
-      <c r="K15" s="32">
-        <v>83</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1428</v>
-      </c>
-      <c r="M15" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q15" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>5.0638297872340425</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="O15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q15" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3044,56 +3040,56 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="30">
+        <v>22</v>
+      </c>
+      <c r="H16" s="30">
+        <v>11</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J16" s="30">
+        <v>16</v>
+      </c>
+      <c r="K16" s="30">
+        <v>10</v>
+      </c>
+      <c r="L16" s="30">
+        <v>22</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G16" s="5">
-        <v>235</v>
-      </c>
-      <c r="H16" s="5">
-        <v>67</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="N16" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>28.51063829787234</v>
-      </c>
-      <c r="J16" s="7">
-        <v>740</v>
-      </c>
-      <c r="K16" s="32">
-        <v>128</v>
-      </c>
-      <c r="L16" s="5">
-        <v>815</v>
-      </c>
-      <c r="M16" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q16" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>12.164179104477611</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="O16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q16" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3102,56 +3098,56 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>356</v>
+        <v>123</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F17" s="7">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>787</v>
-      </c>
-      <c r="H17" s="5">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <v>42</v>
+      </c>
+      <c r="H17" s="30">
+        <v>20</v>
       </c>
       <c r="I17" s="8">
+        <f t="shared" si="1"/>
+        <v>47.61904761904762</v>
+      </c>
+      <c r="J17" s="30">
+        <v>57</v>
+      </c>
+      <c r="K17" s="30">
+        <v>30</v>
+      </c>
+      <c r="L17" s="30">
+        <v>78</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>21.601016518424398</v>
-      </c>
-      <c r="J17" s="7">
-        <v>649</v>
-      </c>
-      <c r="K17" s="32">
-        <v>118</v>
-      </c>
-      <c r="L17" s="5">
-        <v>711</v>
-      </c>
-      <c r="M17" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q17" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>4.1823529411764708</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="O17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q17" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3160,56 +3156,56 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="5">
-        <v>829</v>
-      </c>
-      <c r="H18" s="5">
-        <v>261</v>
+        <v>1</v>
+      </c>
+      <c r="G18" s="30">
+        <v>3113</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1480</v>
       </c>
       <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>47.542563443623514</v>
+      </c>
+      <c r="J18" s="30">
+        <v>6353</v>
+      </c>
+      <c r="K18" s="30">
+        <v>167</v>
+      </c>
+      <c r="L18" s="30">
+        <v>7551</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="2"/>
+        <v>5.1020270270270274</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>31.483715319662245</v>
-      </c>
-      <c r="J18" s="7">
-        <v>447</v>
-      </c>
-      <c r="K18" s="32">
-        <v>55</v>
-      </c>
-      <c r="L18" s="5">
-        <v>719</v>
-      </c>
-      <c r="M18" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q18" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>2.7547892720306515</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="O18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q18" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3218,56 +3214,56 @@
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>142</v>
-      </c>
-      <c r="H19" s="5">
-        <v>109</v>
+        <v>4</v>
+      </c>
+      <c r="G19" s="30">
+        <v>1383</v>
+      </c>
+      <c r="H19" s="30">
+        <v>612</v>
       </c>
       <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>44.251626898047725</v>
+      </c>
+      <c r="J19" s="30">
+        <v>2466</v>
+      </c>
+      <c r="K19" s="30">
+        <v>141</v>
+      </c>
+      <c r="L19" s="30">
+        <v>5575</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="2"/>
+        <v>9.109477124183007</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>76.760563380281695</v>
-      </c>
-      <c r="J19" s="7">
-        <v>340</v>
-      </c>
-      <c r="K19" s="32">
-        <v>40</v>
-      </c>
-      <c r="L19" s="5">
-        <v>363</v>
-      </c>
-      <c r="M19" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q19" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>3.330275229357798</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="O19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q19" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3276,56 +3272,56 @@
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>359</v>
+        <v>104</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>546</v>
-      </c>
-      <c r="H20" s="5">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30">
+        <v>276</v>
+      </c>
+      <c r="H20" s="30">
+        <v>108</v>
       </c>
       <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>39.130434782608695</v>
+      </c>
+      <c r="J20" s="30">
+        <v>101</v>
+      </c>
+      <c r="K20" s="30">
+        <v>26</v>
+      </c>
+      <c r="L20" s="30">
+        <v>235</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="2"/>
+        <v>2.175925925925926</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>20.146520146520146</v>
-      </c>
-      <c r="J20" s="7">
-        <v>284</v>
-      </c>
-      <c r="K20" s="32">
-        <v>28</v>
-      </c>
-      <c r="L20" s="5">
-        <v>357</v>
-      </c>
-      <c r="M20" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>3.2454545454545456</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q20" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3334,56 +3330,56 @@
         <v>13</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>446</v>
+        <v>121</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5">
-        <v>298</v>
-      </c>
-      <c r="H21" s="5">
-        <v>55</v>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="30">
+        <v>37</v>
+      </c>
+      <c r="H21" s="30">
+        <v>14</v>
       </c>
       <c r="I21" s="8">
+        <f t="shared" si="1"/>
+        <v>37.837837837837839</v>
+      </c>
+      <c r="J21" s="30">
+        <v>13</v>
+      </c>
+      <c r="K21" s="30">
+        <v>1</v>
+      </c>
+      <c r="L21" s="30">
+        <v>15</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="O21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>18.456375838926174</v>
-      </c>
-      <c r="J21" s="7">
-        <v>261</v>
-      </c>
-      <c r="K21" s="32">
-        <v>64</v>
-      </c>
-      <c r="L21" s="5">
-        <v>370</v>
-      </c>
-      <c r="M21" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q21" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.7272727272727275</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="O21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q21" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3392,56 +3388,56 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F22" s="7">
-        <v>6</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1323</v>
-      </c>
-      <c r="H22" s="5">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="30">
+        <v>33</v>
+      </c>
+      <c r="H22" s="30">
+        <v>12</v>
       </c>
       <c r="I22" s="8">
+        <f t="shared" si="1"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="J22" s="30">
+        <v>26</v>
+      </c>
+      <c r="K22" s="30">
+        <v>16</v>
+      </c>
+      <c r="L22" s="30">
+        <v>30</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>11.564625850340136</v>
-      </c>
-      <c r="J22" s="7">
-        <v>261</v>
-      </c>
-      <c r="K22" s="32">
-        <v>32</v>
-      </c>
-      <c r="L22" s="5">
-        <v>356</v>
-      </c>
-      <c r="M22" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>2.3267973856209152</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q22" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3450,56 +3446,56 @@
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>148</v>
-      </c>
-      <c r="H23" s="5">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="G23" s="30">
+        <v>3247</v>
+      </c>
+      <c r="H23" s="30">
+        <v>1119</v>
       </c>
       <c r="I23" s="8">
+        <f t="shared" si="1"/>
+        <v>34.462580843855868</v>
+      </c>
+      <c r="J23" s="30">
+        <v>7257</v>
+      </c>
+      <c r="K23" s="30">
+        <v>159</v>
+      </c>
+      <c r="L23" s="30">
+        <v>14839</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="2"/>
+        <v>13.2609472743521</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="O23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>56.756756756756758</v>
-      </c>
-      <c r="J23" s="7">
-        <v>223</v>
-      </c>
-      <c r="K23" s="32">
-        <v>45</v>
-      </c>
-      <c r="L23" s="5">
-        <v>286</v>
-      </c>
-      <c r="M23" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q23" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>3.4047619047619047</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q23" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3508,56 +3504,56 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7">
-        <v>2259</v>
-      </c>
-      <c r="H24" s="5">
-        <v>205</v>
+        <v>5</v>
+      </c>
+      <c r="G24" s="30">
+        <v>829</v>
+      </c>
+      <c r="H24" s="30">
+        <v>261</v>
       </c>
       <c r="I24" s="8">
+        <f t="shared" si="1"/>
+        <v>31.483715319662245</v>
+      </c>
+      <c r="J24" s="30">
+        <v>447</v>
+      </c>
+      <c r="K24" s="30">
+        <v>55</v>
+      </c>
+      <c r="L24" s="30">
+        <v>719</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="2"/>
+        <v>2.7547892720306515</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="O24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>9.0748118636564854</v>
-      </c>
-      <c r="J24" s="7">
-        <v>217</v>
-      </c>
-      <c r="K24" s="32">
-        <v>48</v>
-      </c>
-      <c r="L24" s="5">
-        <v>449</v>
-      </c>
-      <c r="M24" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q24" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>2.1902439024390246</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="O24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q24" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3566,56 +3562,56 @@
         <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>3226</v>
-      </c>
-      <c r="H25" s="5">
-        <v>147</v>
+        <v>5</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1964</v>
+      </c>
+      <c r="H25" s="30">
+        <v>595</v>
       </c>
       <c r="I25" s="8">
+        <f t="shared" si="1"/>
+        <v>30.295315682281061</v>
+      </c>
+      <c r="J25" s="30">
+        <v>1672</v>
+      </c>
+      <c r="K25" s="30">
+        <v>98</v>
+      </c>
+      <c r="L25" s="30">
+        <v>2284</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="2"/>
+        <v>3.8386554621848741</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>4.5567265964042161</v>
-      </c>
-      <c r="J25" s="7">
-        <v>204</v>
-      </c>
-      <c r="K25" s="32">
-        <v>50</v>
-      </c>
-      <c r="L25" s="5">
-        <v>263</v>
-      </c>
-      <c r="M25" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q25" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>1.7891156462585034</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="O25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q25" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3624,13 +3620,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3639,41 +3635,41 @@
       <c r="F26" s="7">
         <v>2</v>
       </c>
-      <c r="G26" s="5">
-        <v>573</v>
-      </c>
-      <c r="H26" s="5">
-        <v>69</v>
+      <c r="G26" s="30">
+        <v>235</v>
+      </c>
+      <c r="H26" s="30">
+        <v>67</v>
       </c>
       <c r="I26" s="8">
+        <f t="shared" si="1"/>
+        <v>28.51063829787234</v>
+      </c>
+      <c r="J26" s="30">
+        <v>740</v>
+      </c>
+      <c r="K26" s="30">
+        <v>128</v>
+      </c>
+      <c r="L26" s="30">
+        <v>815</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="2"/>
+        <v>12.164179104477611</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>12.041884816753926</v>
-      </c>
-      <c r="J26" s="7">
-        <v>179</v>
-      </c>
-      <c r="K26" s="32">
-        <v>35</v>
-      </c>
-      <c r="L26" s="5">
-        <v>237</v>
-      </c>
-      <c r="M26" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q26" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>3.4347826086956523</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="O26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q26" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3682,56 +3678,56 @@
         <v>13</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>364</v>
+        <v>112</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>605</v>
-      </c>
-      <c r="H27" s="5">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="G27" s="30">
+        <v>145</v>
+      </c>
+      <c r="H27" s="30">
+        <v>40</v>
       </c>
       <c r="I27" s="8">
+        <f t="shared" si="1"/>
+        <v>27.586206896551722</v>
+      </c>
+      <c r="J27" s="30">
+        <v>79</v>
+      </c>
+      <c r="K27" s="30">
+        <v>19</v>
+      </c>
+      <c r="L27" s="30">
+        <v>82</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>25.619834710743802</v>
-      </c>
-      <c r="J27" s="7">
-        <v>179</v>
-      </c>
-      <c r="K27" s="32">
-        <v>30</v>
-      </c>
-      <c r="L27" s="5">
-        <v>243</v>
-      </c>
-      <c r="M27" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q27" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>1.5677419354838709</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="O27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q27" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3740,56 +3736,56 @@
         <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>435</v>
+        <v>17</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="F28" s="5">
-        <v>3</v>
-      </c>
-      <c r="G28" s="5">
-        <v>528</v>
-      </c>
-      <c r="H28" s="5">
-        <v>66</v>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="30">
+        <v>104</v>
+      </c>
+      <c r="H28" s="30">
+        <v>28</v>
       </c>
       <c r="I28" s="8">
+        <f t="shared" si="1"/>
+        <v>26.923076923076923</v>
+      </c>
+      <c r="J28" s="30">
+        <v>42</v>
+      </c>
+      <c r="K28" s="30">
+        <v>7</v>
+      </c>
+      <c r="L28" s="30">
+        <v>44</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>12.5</v>
-      </c>
-      <c r="J28" s="7">
-        <v>168</v>
-      </c>
-      <c r="K28" s="32">
-        <v>53</v>
-      </c>
-      <c r="L28" s="5">
-        <v>258</v>
-      </c>
-      <c r="M28" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q28" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>3.9090909090909092</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="O28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q28" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3798,13 +3794,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3813,41 +3809,41 @@
       <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="7">
-        <v>1638</v>
-      </c>
-      <c r="H29" s="5">
-        <v>124</v>
+      <c r="G29" s="30">
+        <v>605</v>
+      </c>
+      <c r="H29" s="30">
+        <v>155</v>
       </c>
       <c r="I29" s="8">
+        <f t="shared" si="1"/>
+        <v>25.619834710743802</v>
+      </c>
+      <c r="J29" s="30">
+        <v>179</v>
+      </c>
+      <c r="K29" s="30">
+        <v>30</v>
+      </c>
+      <c r="L29" s="30">
+        <v>243</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5677419354838709</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>7.57020757020757</v>
-      </c>
-      <c r="J29" s="7">
-        <v>148</v>
-      </c>
-      <c r="K29" s="32">
-        <v>22</v>
-      </c>
-      <c r="L29" s="5">
-        <v>228</v>
-      </c>
-      <c r="M29" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>1.8387096774193548</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="O29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q29" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3856,13 +3852,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>367</v>
+        <v>37</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3871,41 +3867,41 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="5">
-        <v>46</v>
-      </c>
-      <c r="H30" s="5">
-        <v>45</v>
+      <c r="G30" s="30">
+        <v>152</v>
+      </c>
+      <c r="H30" s="30">
+        <v>38</v>
       </c>
       <c r="I30" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J30" s="30">
+        <v>64</v>
+      </c>
+      <c r="K30" s="30">
+        <v>18</v>
+      </c>
+      <c r="L30" s="30">
+        <v>68</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7894736842105263</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>97.826086956521735</v>
-      </c>
-      <c r="J30" s="7">
-        <v>146</v>
-      </c>
-      <c r="K30" s="32">
-        <v>38</v>
-      </c>
-      <c r="L30" s="5">
-        <v>200</v>
-      </c>
-      <c r="M30" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q30" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3914,56 +3910,56 @@
         <v>13</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>631</v>
-      </c>
-      <c r="H31" s="5">
-        <v>91</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30">
+        <v>12</v>
+      </c>
+      <c r="H31" s="30">
+        <v>3</v>
       </c>
       <c r="I31" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J31" s="30">
+        <v>6</v>
+      </c>
+      <c r="K31" s="30">
+        <v>2</v>
+      </c>
+      <c r="L31" s="30">
+        <v>7</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>14.421553090332806</v>
-      </c>
-      <c r="J31" s="7">
-        <v>143</v>
-      </c>
-      <c r="K31" s="32">
-        <v>27</v>
-      </c>
-      <c r="L31" s="5">
-        <v>167</v>
-      </c>
-      <c r="M31" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>1.8351648351648351</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q31" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -3972,56 +3968,56 @@
         <v>13</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="30">
         <v>4</v>
       </c>
-      <c r="G32" s="5">
-        <v>830</v>
-      </c>
-      <c r="H32" s="5">
-        <v>100</v>
+      <c r="H32" s="30">
+        <v>1</v>
       </c>
       <c r="I32" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J32" s="30">
+        <v>7</v>
+      </c>
+      <c r="K32" s="30">
+        <v>5</v>
+      </c>
+      <c r="L32" s="30">
+        <v>7</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>12.048192771084338</v>
-      </c>
-      <c r="J32" s="7">
-        <v>136</v>
-      </c>
-      <c r="K32" s="32">
-        <v>36</v>
-      </c>
-      <c r="L32" s="5">
-        <v>196</v>
-      </c>
-      <c r="M32" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>1.96</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="O32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q32" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4030,56 +4026,56 @@
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>255</v>
-      </c>
-      <c r="H33" s="5">
-        <v>134</v>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="30">
+        <v>29</v>
+      </c>
+      <c r="H33" s="30">
+        <v>7</v>
       </c>
       <c r="I33" s="8">
+        <f t="shared" si="1"/>
+        <v>24.137931034482758</v>
+      </c>
+      <c r="J33" s="30">
+        <v>8</v>
+      </c>
+      <c r="K33" s="30">
+        <v>8</v>
+      </c>
+      <c r="L33" s="30">
+        <v>36</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="2"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>52.549019607843135</v>
-      </c>
-      <c r="J33" s="7">
-        <v>113</v>
-      </c>
-      <c r="K33" s="32">
-        <v>24</v>
-      </c>
-      <c r="L33" s="5">
-        <v>273</v>
-      </c>
-      <c r="M33" s="8">
+        <v>Klik</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>2.0373134328358211</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="O33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q33" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4088,56 +4084,56 @@
         <v>13</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>371</v>
+        <v>109</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" ref="E34:E65" si="5">HYPERLINK(D34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F34" s="7">
-        <v>4</v>
-      </c>
-      <c r="G34" s="5">
-        <v>430</v>
-      </c>
-      <c r="H34" s="5">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="G34" s="30">
+        <v>1169</v>
+      </c>
+      <c r="H34" s="30">
+        <v>282</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="3"/>
-        <v>16.046511627906977</v>
-      </c>
-      <c r="J34" s="7">
-        <v>103</v>
-      </c>
-      <c r="K34" s="32">
-        <v>35</v>
-      </c>
-      <c r="L34" s="5">
-        <v>144</v>
+        <f t="shared" ref="I34:I65" si="6">100*H34/G34</f>
+        <v>24.123182207014544</v>
+      </c>
+      <c r="J34" s="30">
+        <v>943</v>
+      </c>
+      <c r="K34" s="30">
+        <v>83</v>
+      </c>
+      <c r="L34" s="30">
+        <v>1428</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="4"/>
-        <v>2.0869565217391304</v>
+        <f t="shared" ref="M34:M65" si="7">L34/H34</f>
+        <v>5.0638297872340425</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="O34" s="6" t="str">
-        <f t="shared" ref="O34:O65" si="6">HYPERLINK(N34,"Klik")</f>
+        <f t="shared" ref="O34:O65" si="8">HYPERLINK(N34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Q34" s="6" t="str">
-        <f t="shared" ref="Q34:Q65" si="7">HYPERLINK(P34,"Klik")</f>
+        <f t="shared" ref="Q34:Q65" si="9">HYPERLINK(P34,"Klik")</f>
         <v>Klik</v>
       </c>
     </row>
@@ -4146,56 +4142,56 @@
         <v>13</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F35" s="7">
-        <v>3</v>
-      </c>
-      <c r="G35" s="5">
-        <v>683</v>
-      </c>
-      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="30">
+        <v>251</v>
+      </c>
+      <c r="H35" s="30">
+        <v>56</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="6"/>
+        <v>22.310756972111555</v>
+      </c>
+      <c r="J35" s="30">
         <v>98</v>
       </c>
-      <c r="I35" s="8">
-        <f t="shared" si="3"/>
-        <v>14.348462664714495</v>
-      </c>
-      <c r="J35" s="7">
-        <v>103</v>
-      </c>
-      <c r="K35" s="32">
-        <v>21</v>
-      </c>
-      <c r="L35" s="5">
-        <v>175</v>
+      <c r="K35" s="30">
+        <v>18</v>
+      </c>
+      <c r="L35" s="30">
+        <v>113</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="4"/>
-        <v>1.7857142857142858</v>
+        <f t="shared" si="7"/>
+        <v>2.0178571428571428</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O35" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q35" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4204,56 +4200,56 @@
         <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>373</v>
+        <v>27</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>276</v>
-      </c>
-      <c r="H36" s="5">
-        <v>108</v>
+        <v>4</v>
+      </c>
+      <c r="G36" s="30">
+        <v>787</v>
+      </c>
+      <c r="H36" s="30">
+        <v>170</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="3"/>
-        <v>39.130434782608695</v>
-      </c>
-      <c r="J36" s="7">
-        <v>101</v>
-      </c>
-      <c r="K36" s="32">
-        <v>26</v>
-      </c>
-      <c r="L36" s="5">
-        <v>235</v>
+        <f t="shared" si="6"/>
+        <v>21.601016518424398</v>
+      </c>
+      <c r="J36" s="30">
+        <v>649</v>
+      </c>
+      <c r="K36" s="30">
+        <v>118</v>
+      </c>
+      <c r="L36" s="30">
+        <v>711</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="4"/>
-        <v>2.175925925925926</v>
+        <f t="shared" si="7"/>
+        <v>4.1823529411764708</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="O36" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="Q36" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4262,56 +4258,56 @@
         <v>13</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>374</v>
+        <v>66</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F37" s="7">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5">
-        <v>859</v>
-      </c>
-      <c r="H37" s="5">
-        <v>667</v>
+        <v>1</v>
+      </c>
+      <c r="G37" s="30">
+        <v>51</v>
+      </c>
+      <c r="H37" s="30">
+        <v>11</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="3"/>
-        <v>77.648428405122232</v>
-      </c>
-      <c r="J37" s="7">
-        <v>99</v>
-      </c>
-      <c r="K37" s="32">
-        <v>32</v>
-      </c>
-      <c r="L37" s="5">
-        <v>754</v>
+        <f t="shared" si="6"/>
+        <v>21.568627450980394</v>
+      </c>
+      <c r="J37" s="30">
+        <v>15</v>
+      </c>
+      <c r="K37" s="30">
+        <v>7</v>
+      </c>
+      <c r="L37" s="30">
+        <v>22</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="4"/>
-        <v>1.1304347826086956</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O37" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q37" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4320,13 +4316,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>375</v>
+        <v>64</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4335,41 +4331,41 @@
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="5">
-        <v>251</v>
-      </c>
-      <c r="H38" s="5">
-        <v>56</v>
+      <c r="G38" s="30">
+        <v>80</v>
+      </c>
+      <c r="H38" s="30">
+        <v>17</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="3"/>
-        <v>22.310756972111555</v>
-      </c>
-      <c r="J38" s="7">
-        <v>98</v>
-      </c>
-      <c r="K38" s="32">
-        <v>18</v>
-      </c>
-      <c r="L38" s="5">
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>21.25</v>
+      </c>
+      <c r="J38" s="30">
+        <v>42</v>
+      </c>
+      <c r="K38" s="30">
+        <v>13</v>
+      </c>
+      <c r="L38" s="30">
+        <v>52</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="4"/>
-        <v>2.0178571428571428</v>
+        <f t="shared" si="7"/>
+        <v>3.0588235294117645</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="O38" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4378,56 +4374,56 @@
         <v>13</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>376</v>
+        <v>31</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>346</v>
-      </c>
-      <c r="H39" s="5">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30">
+        <v>19</v>
+      </c>
+      <c r="H39" s="30">
+        <v>4</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="3"/>
-        <v>11.84971098265896</v>
-      </c>
-      <c r="J39" s="7">
-        <v>89</v>
-      </c>
-      <c r="K39" s="32">
-        <v>33</v>
-      </c>
-      <c r="L39" s="5">
-        <v>138</v>
+        <f t="shared" si="6"/>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="J39" s="30">
+        <v>5</v>
+      </c>
+      <c r="K39" s="30">
+        <v>2</v>
+      </c>
+      <c r="L39" s="30">
+        <v>5</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="4"/>
-        <v>3.3658536585365852</v>
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="O39" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="Q39" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4436,56 +4432,56 @@
         <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>444</v>
+        <v>32</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="7">
         <v>1</v>
       </c>
-      <c r="G40" s="5">
-        <v>195</v>
-      </c>
-      <c r="H40" s="5">
-        <v>3</v>
+      <c r="G40" s="30">
+        <v>546</v>
+      </c>
+      <c r="H40" s="30">
+        <v>110</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="3"/>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="J40" s="7">
-        <v>79</v>
-      </c>
-      <c r="K40" s="32">
-        <v>47</v>
-      </c>
-      <c r="L40" s="5">
-        <v>79</v>
+        <f t="shared" si="6"/>
+        <v>20.146520146520146</v>
+      </c>
+      <c r="J40" s="30">
+        <v>284</v>
+      </c>
+      <c r="K40" s="30">
+        <v>28</v>
+      </c>
+      <c r="L40" s="30">
+        <v>357</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="4"/>
-        <v>26.333333333333332</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>443</v>
+        <f t="shared" si="7"/>
+        <v>3.2454545454545456</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="O40" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="Q40" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4494,56 +4490,56 @@
         <v>13</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>377</v>
+        <v>141</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F41" s="7">
-        <v>2</v>
-      </c>
-      <c r="G41" s="5">
-        <v>145</v>
-      </c>
-      <c r="H41" s="5">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="G41" s="30">
+        <v>106</v>
+      </c>
+      <c r="H41" s="30">
+        <v>21</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="3"/>
-        <v>27.586206896551722</v>
-      </c>
-      <c r="J41" s="7">
-        <v>79</v>
-      </c>
-      <c r="K41" s="32">
-        <v>19</v>
-      </c>
-      <c r="L41" s="5">
-        <v>82</v>
+        <f t="shared" si="6"/>
+        <v>19.811320754716981</v>
+      </c>
+      <c r="J41" s="30">
+        <v>16</v>
+      </c>
+      <c r="K41" s="30">
+        <v>8</v>
+      </c>
+      <c r="L41" s="30">
+        <v>37</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="4"/>
-        <v>2.0499999999999998</v>
+        <f t="shared" si="7"/>
+        <v>1.7619047619047619</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O41" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q41" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4552,56 +4548,56 @@
         <v>13</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>378</v>
+        <v>433</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
-      <c r="G42" s="5">
-        <v>466</v>
-      </c>
-      <c r="H42" s="5">
-        <v>31</v>
+      <c r="F42" s="5">
+        <v>4</v>
+      </c>
+      <c r="G42" s="30">
+        <v>298</v>
+      </c>
+      <c r="H42" s="30">
+        <v>55</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="3"/>
-        <v>6.6523605150214591</v>
-      </c>
-      <c r="J42" s="7">
-        <v>73</v>
-      </c>
-      <c r="K42" s="32">
-        <v>15</v>
-      </c>
-      <c r="L42" s="5">
-        <v>78</v>
+        <f t="shared" si="6"/>
+        <v>18.456375838926174</v>
+      </c>
+      <c r="J42" s="30">
+        <v>261</v>
+      </c>
+      <c r="K42" s="30">
+        <v>64</v>
+      </c>
+      <c r="L42" s="30">
+        <v>370</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5161290322580645</v>
+        <f t="shared" si="7"/>
+        <v>6.7272727272727275</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>200</v>
+        <v>436</v>
       </c>
       <c r="O42" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="Q42" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4610,56 +4606,56 @@
         <v>13</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>379</v>
+        <v>157</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F43" s="7">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5">
-        <v>334</v>
-      </c>
-      <c r="H43" s="5">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="G43" s="30">
+        <v>1495</v>
+      </c>
+      <c r="H43" s="30">
+        <v>266</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="3"/>
-        <v>13.173652694610778</v>
-      </c>
-      <c r="J43" s="7">
-        <v>71</v>
-      </c>
-      <c r="K43" s="32">
-        <v>20</v>
-      </c>
-      <c r="L43" s="5">
-        <v>85</v>
+        <f t="shared" si="6"/>
+        <v>17.792642140468228</v>
+      </c>
+      <c r="J43" s="30">
+        <v>2411</v>
+      </c>
+      <c r="K43" s="30">
+        <v>195</v>
+      </c>
+      <c r="L43" s="30">
+        <v>2526</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="4"/>
-        <v>1.9318181818181819</v>
+        <f t="shared" si="7"/>
+        <v>9.496240601503759</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="O43" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="Q43" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4668,13 +4664,13 @@
         <v>13</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>380</v>
+        <v>120</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4683,41 +4679,41 @@
       <c r="F44" s="7">
         <v>0</v>
       </c>
-      <c r="G44" s="5">
-        <v>152</v>
-      </c>
-      <c r="H44" s="5">
-        <v>38</v>
+      <c r="G44" s="30">
+        <v>23</v>
+      </c>
+      <c r="H44" s="30">
+        <v>4</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J44" s="7">
-        <v>64</v>
-      </c>
-      <c r="K44" s="32">
-        <v>18</v>
-      </c>
-      <c r="L44" s="5">
-        <v>68</v>
+        <f t="shared" si="6"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="J44" s="30">
+        <v>3</v>
+      </c>
+      <c r="K44" s="30">
+        <v>2</v>
+      </c>
+      <c r="L44" s="30">
+        <v>7</v>
       </c>
       <c r="M44" s="8">
-        <f t="shared" si="4"/>
-        <v>1.7894736842105263</v>
+        <f t="shared" si="7"/>
+        <v>1.75</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="O44" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="Q44" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4726,56 +4722,56 @@
         <v>13</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F45" s="7">
-        <v>3</v>
-      </c>
-      <c r="G45" s="5">
-        <v>415</v>
-      </c>
-      <c r="H45" s="5">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="G45" s="30">
+        <v>430</v>
+      </c>
+      <c r="H45" s="30">
+        <v>69</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="3"/>
-        <v>3.3734939759036147</v>
-      </c>
-      <c r="J45" s="7">
-        <v>63</v>
-      </c>
-      <c r="K45" s="32">
-        <v>26</v>
-      </c>
-      <c r="L45" s="5">
-        <v>65</v>
+        <f t="shared" si="6"/>
+        <v>16.046511627906977</v>
+      </c>
+      <c r="J45" s="30">
+        <v>103</v>
+      </c>
+      <c r="K45" s="30">
+        <v>35</v>
+      </c>
+      <c r="L45" s="30">
+        <v>144</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="4"/>
-        <v>4.6428571428571432</v>
+        <f t="shared" si="7"/>
+        <v>2.0869565217391304</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="O45" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="Q45" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4784,56 +4780,56 @@
         <v>13</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>382</v>
+        <v>155</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F46" s="7">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7">
-        <v>20999</v>
-      </c>
-      <c r="H46" s="5">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="G46" s="30">
+        <v>57516</v>
+      </c>
+      <c r="H46" s="30">
+        <v>9014</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="3"/>
-        <v>0.35715986475546457</v>
-      </c>
-      <c r="J46" s="7">
-        <v>62</v>
-      </c>
-      <c r="K46" s="32">
-        <v>11</v>
-      </c>
-      <c r="L46" s="5">
-        <v>95</v>
+        <f t="shared" si="6"/>
+        <v>15.672160790041032</v>
+      </c>
+      <c r="J46" s="30">
+        <v>20289</v>
+      </c>
+      <c r="K46" s="30">
+        <v>194</v>
+      </c>
+      <c r="L46" s="30">
+        <v>29958</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="4"/>
-        <v>1.2666666666666666</v>
+        <f t="shared" si="7"/>
+        <v>3.3234967827823385</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O46" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="Q46" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4842,56 +4838,56 @@
         <v>13</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>383</v>
+        <v>15</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F47" s="7">
-        <v>2</v>
-      </c>
-      <c r="G47" s="5">
-        <v>215</v>
-      </c>
-      <c r="H47" s="5">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="G47" s="30">
+        <v>631</v>
+      </c>
+      <c r="H47" s="30">
+        <v>91</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="3"/>
-        <v>14.418604651162791</v>
-      </c>
-      <c r="J47" s="7">
-        <v>60</v>
-      </c>
-      <c r="K47" s="32">
-        <v>19</v>
-      </c>
-      <c r="L47" s="5">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>14.421553090332806</v>
+      </c>
+      <c r="J47" s="30">
+        <v>143</v>
+      </c>
+      <c r="K47" s="30">
+        <v>27</v>
+      </c>
+      <c r="L47" s="30">
+        <v>167</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" si="4"/>
-        <v>2.2580645161290325</v>
+        <f t="shared" si="7"/>
+        <v>1.8351648351648351</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="O47" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="Q47" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4900,56 +4896,56 @@
         <v>13</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E48" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F48" s="7">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
-        <v>260</v>
-      </c>
-      <c r="H48" s="5">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="G48" s="30">
+        <v>215</v>
+      </c>
+      <c r="H48" s="30">
+        <v>31</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="3"/>
-        <v>5.7692307692307692</v>
-      </c>
-      <c r="J48" s="7">
-        <v>59</v>
-      </c>
-      <c r="K48" s="32">
-        <v>27</v>
-      </c>
-      <c r="L48" s="5">
-        <v>77</v>
+        <f t="shared" si="6"/>
+        <v>14.418604651162791</v>
+      </c>
+      <c r="J48" s="30">
+        <v>60</v>
+      </c>
+      <c r="K48" s="30">
+        <v>19</v>
+      </c>
+      <c r="L48" s="30">
+        <v>70</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" si="4"/>
-        <v>5.1333333333333337</v>
+        <f t="shared" si="7"/>
+        <v>2.2580645161290325</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="O48" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="Q48" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -4958,56 +4954,56 @@
         <v>13</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E49" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>42</v>
-      </c>
-      <c r="H49" s="5">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="G49" s="30">
+        <v>683</v>
+      </c>
+      <c r="H49" s="30">
+        <v>98</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="3"/>
-        <v>47.61904761904762</v>
-      </c>
-      <c r="J49" s="7">
-        <v>57</v>
-      </c>
-      <c r="K49" s="32">
-        <v>30</v>
-      </c>
-      <c r="L49" s="5">
-        <v>78</v>
+        <f t="shared" si="6"/>
+        <v>14.348462664714495</v>
+      </c>
+      <c r="J49" s="30">
+        <v>103</v>
+      </c>
+      <c r="K49" s="30">
+        <v>21</v>
+      </c>
+      <c r="L49" s="30">
+        <v>175</v>
       </c>
       <c r="M49" s="8">
-        <f t="shared" si="4"/>
-        <v>3.9</v>
+        <f t="shared" si="7"/>
+        <v>1.7857142857142858</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="O49" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="Q49" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5016,56 +5012,56 @@
         <v>13</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>386</v>
+        <v>117</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E50" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F50" s="7">
-        <v>3</v>
-      </c>
-      <c r="G50" s="5">
-        <v>482</v>
-      </c>
-      <c r="H50" s="5">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="G50" s="30">
+        <v>7</v>
+      </c>
+      <c r="H50" s="30">
+        <v>1</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="3"/>
-        <v>11.825726141078839</v>
-      </c>
-      <c r="J50" s="7">
-        <v>56</v>
-      </c>
-      <c r="K50" s="32">
-        <v>11</v>
-      </c>
-      <c r="L50" s="5">
-        <v>83</v>
+        <f t="shared" si="6"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="J50" s="30">
+        <v>1</v>
+      </c>
+      <c r="K50" s="30">
+        <v>1</v>
+      </c>
+      <c r="L50" s="30">
+        <v>1</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" si="4"/>
-        <v>1.4561403508771931</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="O50" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="Q50" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5074,56 +5070,56 @@
         <v>13</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E51" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F51" s="7">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>605</v>
-      </c>
-      <c r="H51" s="5">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="G51" s="30">
+        <v>334</v>
+      </c>
+      <c r="H51" s="30">
+        <v>44</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="3"/>
-        <v>4.6280991735537187</v>
-      </c>
-      <c r="J51" s="7">
-        <v>46</v>
-      </c>
-      <c r="K51" s="32">
-        <v>10</v>
-      </c>
-      <c r="L51" s="5">
-        <v>51</v>
+        <f t="shared" si="6"/>
+        <v>13.173652694610778</v>
+      </c>
+      <c r="J51" s="30">
+        <v>71</v>
+      </c>
+      <c r="K51" s="30">
+        <v>20</v>
+      </c>
+      <c r="L51" s="30">
+        <v>85</v>
       </c>
       <c r="M51" s="8">
-        <f t="shared" si="4"/>
-        <v>1.8214285714285714</v>
+        <f t="shared" si="7"/>
+        <v>1.9318181818181819</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="O51" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="Q51" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5132,56 +5128,56 @@
         <v>13</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>64</v>
+        <v>435</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="E52" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5">
-        <v>80</v>
-      </c>
-      <c r="H52" s="5">
-        <v>17</v>
+      <c r="F52" s="5">
+        <v>3</v>
+      </c>
+      <c r="G52" s="30">
+        <v>528</v>
+      </c>
+      <c r="H52" s="30">
+        <v>66</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="3"/>
-        <v>21.25</v>
-      </c>
-      <c r="J52" s="7">
-        <v>42</v>
-      </c>
-      <c r="K52" s="32">
-        <v>13</v>
-      </c>
-      <c r="L52" s="5">
-        <v>52</v>
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="J52" s="30">
+        <v>168</v>
+      </c>
+      <c r="K52" s="30">
+        <v>53</v>
+      </c>
+      <c r="L52" s="30">
+        <v>258</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" si="4"/>
-        <v>3.0588235294117645</v>
+        <f t="shared" si="7"/>
+        <v>3.9090909090909092</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>188</v>
+        <v>442</v>
       </c>
       <c r="O52" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>276</v>
+        <v>439</v>
       </c>
       <c r="Q52" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5190,56 +5186,56 @@
         <v>13</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="E53" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F53" s="7">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
-        <v>104</v>
-      </c>
-      <c r="H53" s="5">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="G53" s="30">
+        <v>40</v>
+      </c>
+      <c r="H53" s="30">
+        <v>5</v>
       </c>
       <c r="I53" s="8">
-        <f t="shared" si="3"/>
-        <v>26.923076923076923</v>
-      </c>
-      <c r="J53" s="7">
-        <v>42</v>
-      </c>
-      <c r="K53" s="32">
-        <v>7</v>
-      </c>
-      <c r="L53" s="5">
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="J53" s="30">
+        <v>8</v>
+      </c>
+      <c r="K53" s="30">
+        <v>4</v>
+      </c>
+      <c r="L53" s="30">
+        <v>8</v>
       </c>
       <c r="M53" s="8">
-        <f t="shared" si="4"/>
-        <v>1.5714285714285714</v>
+        <f t="shared" si="7"/>
+        <v>1.6</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="O53" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="Q53" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5248,13 +5244,13 @@
         <v>13</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="E54" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5263,41 +5259,41 @@
       <c r="F54" s="7">
         <v>0</v>
       </c>
-      <c r="G54" s="5">
-        <v>268</v>
-      </c>
-      <c r="H54" s="5">
-        <v>29</v>
+      <c r="G54" s="30">
+        <v>40</v>
+      </c>
+      <c r="H54" s="30">
+        <v>5</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="3"/>
-        <v>10.82089552238806</v>
-      </c>
-      <c r="J54" s="7">
-        <v>35</v>
-      </c>
-      <c r="K54" s="32">
-        <v>14</v>
-      </c>
-      <c r="L54" s="5">
-        <v>66</v>
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="J54" s="30">
+        <v>7</v>
+      </c>
+      <c r="K54" s="30">
+        <v>5</v>
+      </c>
+      <c r="L54" s="30">
+        <v>10</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" si="4"/>
-        <v>2.2758620689655173</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="O54" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q54" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5306,56 +5302,56 @@
         <v>13</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="E55" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F55" s="7">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7">
-        <v>5004</v>
-      </c>
-      <c r="H55" s="5">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="G55" s="30">
+        <v>830</v>
+      </c>
+      <c r="H55" s="30">
+        <v>100</v>
       </c>
       <c r="I55" s="8">
-        <f t="shared" si="3"/>
-        <v>1.4588329336530776</v>
-      </c>
-      <c r="J55" s="7">
-        <v>32</v>
-      </c>
-      <c r="K55" s="32">
-        <v>6</v>
-      </c>
-      <c r="L55" s="5">
-        <v>102</v>
+        <f t="shared" si="6"/>
+        <v>12.048192771084338</v>
+      </c>
+      <c r="J55" s="30">
+        <v>136</v>
+      </c>
+      <c r="K55" s="30">
+        <v>36</v>
+      </c>
+      <c r="L55" s="30">
+        <v>196</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="4"/>
-        <v>1.3972602739726028</v>
+        <f t="shared" si="7"/>
+        <v>1.96</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O55" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q55" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5364,56 +5360,56 @@
         <v>13</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="E56" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5">
-        <v>30</v>
-      </c>
-      <c r="H56" s="5">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="G56" s="30">
+        <v>573</v>
+      </c>
+      <c r="H56" s="30">
+        <v>69</v>
       </c>
       <c r="I56" s="8">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="J56" s="7">
-        <v>29</v>
-      </c>
-      <c r="K56" s="32">
-        <v>8</v>
-      </c>
-      <c r="L56" s="5">
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>12.041884816753926</v>
+      </c>
+      <c r="J56" s="30">
+        <v>179</v>
+      </c>
+      <c r="K56" s="30">
+        <v>35</v>
+      </c>
+      <c r="L56" s="30">
+        <v>237</v>
       </c>
       <c r="M56" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3.4347826086956523</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="O56" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="Q56" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5422,56 +5418,56 @@
         <v>13</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>393</v>
+        <v>82</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="E57" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="30">
+        <v>346</v>
+      </c>
+      <c r="H57" s="30">
+        <v>41</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="6"/>
+        <v>11.84971098265896</v>
+      </c>
+      <c r="J57" s="30">
+        <v>89</v>
+      </c>
+      <c r="K57" s="30">
         <v>33</v>
       </c>
-      <c r="H57" s="5">
-        <v>12</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="3"/>
-        <v>36.363636363636367</v>
-      </c>
-      <c r="J57" s="7">
-        <v>26</v>
-      </c>
-      <c r="K57" s="32">
-        <v>16</v>
-      </c>
-      <c r="L57" s="5">
-        <v>30</v>
+      <c r="L57" s="30">
+        <v>138</v>
       </c>
       <c r="M57" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f t="shared" si="7"/>
+        <v>3.3658536585365852</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="O57" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="Q57" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5480,56 +5476,56 @@
         <v>13</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>394</v>
+        <v>96</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="E58" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5">
-        <v>24</v>
-      </c>
-      <c r="H58" s="5">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G58" s="30">
+        <v>482</v>
+      </c>
+      <c r="H58" s="30">
+        <v>57</v>
       </c>
       <c r="I58" s="8">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J58" s="7">
-        <v>23</v>
-      </c>
-      <c r="K58" s="32">
-        <v>7</v>
-      </c>
-      <c r="L58" s="5">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>11.825726141078839</v>
+      </c>
+      <c r="J58" s="30">
+        <v>56</v>
+      </c>
+      <c r="K58" s="30">
+        <v>11</v>
+      </c>
+      <c r="L58" s="30">
+        <v>83</v>
       </c>
       <c r="M58" s="8">
-        <f t="shared" si="4"/>
-        <v>1.9166666666666667</v>
+        <f t="shared" si="7"/>
+        <v>1.4561403508771931</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="O58" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="Q58" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5538,56 +5534,56 @@
         <v>13</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="E59" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F59" s="7">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5">
-        <v>457</v>
-      </c>
-      <c r="H59" s="5">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="G59" s="30">
+        <v>1323</v>
+      </c>
+      <c r="H59" s="30">
+        <v>153</v>
       </c>
       <c r="I59" s="8">
-        <f t="shared" si="3"/>
-        <v>1.9693654266958425</v>
-      </c>
-      <c r="J59" s="7">
-        <v>20</v>
-      </c>
-      <c r="K59" s="32">
-        <v>15</v>
-      </c>
-      <c r="L59" s="5">
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>11.564625850340136</v>
+      </c>
+      <c r="J59" s="30">
+        <v>261</v>
+      </c>
+      <c r="K59" s="30">
+        <v>32</v>
+      </c>
+      <c r="L59" s="30">
+        <v>356</v>
       </c>
       <c r="M59" s="8">
-        <f t="shared" si="4"/>
-        <v>3.1111111111111112</v>
+        <f t="shared" si="7"/>
+        <v>2.3267973856209152</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="O59" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="Q59" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5596,13 +5592,13 @@
         <v>13</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="E60" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5611,41 +5607,41 @@
       <c r="F60" s="7">
         <v>0</v>
       </c>
-      <c r="G60" s="5">
-        <v>22</v>
-      </c>
-      <c r="H60" s="5">
-        <v>11</v>
+      <c r="G60" s="30">
+        <v>9</v>
+      </c>
+      <c r="H60" s="30">
+        <v>1</v>
       </c>
       <c r="I60" s="8">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J60" s="7">
-        <v>16</v>
-      </c>
-      <c r="K60" s="32">
-        <v>10</v>
-      </c>
-      <c r="L60" s="5">
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J60" s="30">
+        <v>3</v>
+      </c>
+      <c r="K60" s="30">
+        <v>2</v>
+      </c>
+      <c r="L60" s="30">
+        <v>3</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="O60" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="Q60" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5654,56 +5650,56 @@
         <v>13</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E61" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F61" s="7">
-        <v>3</v>
-      </c>
-      <c r="G61" s="5">
-        <v>106</v>
-      </c>
-      <c r="H61" s="5">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="G61" s="30">
+        <v>268</v>
+      </c>
+      <c r="H61" s="30">
+        <v>29</v>
       </c>
       <c r="I61" s="8">
-        <f t="shared" si="3"/>
-        <v>19.811320754716981</v>
-      </c>
-      <c r="J61" s="7">
-        <v>16</v>
-      </c>
-      <c r="K61" s="32">
-        <v>8</v>
-      </c>
-      <c r="L61" s="5">
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>10.82089552238806</v>
+      </c>
+      <c r="J61" s="30">
+        <v>35</v>
+      </c>
+      <c r="K61" s="30">
+        <v>14</v>
+      </c>
+      <c r="L61" s="30">
+        <v>66</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" si="4"/>
-        <v>1.7619047619047619</v>
+        <f t="shared" si="7"/>
+        <v>2.2758620689655173</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="O61" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="Q61" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5712,56 +5708,56 @@
         <v>13</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E62" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F62" s="7">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
-        <v>51</v>
-      </c>
-      <c r="H62" s="5">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G62" s="30">
+        <v>19</v>
+      </c>
+      <c r="H62" s="30">
+        <v>2</v>
       </c>
       <c r="I62" s="8">
-        <f t="shared" si="3"/>
-        <v>21.568627450980394</v>
-      </c>
-      <c r="J62" s="7">
-        <v>15</v>
-      </c>
-      <c r="K62" s="32">
-        <v>7</v>
-      </c>
-      <c r="L62" s="5">
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="J62" s="30">
+        <v>10</v>
+      </c>
+      <c r="K62" s="30">
+        <v>6</v>
+      </c>
+      <c r="L62" s="30">
+        <v>10</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="O62" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="Q62" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5770,13 +5766,13 @@
         <v>13</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E63" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5785,41 +5781,41 @@
       <c r="F63" s="7">
         <v>0</v>
       </c>
-      <c r="G63" s="5">
-        <v>41</v>
-      </c>
-      <c r="H63" s="5">
-        <v>33</v>
+      <c r="G63" s="30">
+        <v>10</v>
+      </c>
+      <c r="H63" s="30">
+        <v>1</v>
       </c>
       <c r="I63" s="8">
-        <f t="shared" si="3"/>
-        <v>80.487804878048777</v>
-      </c>
-      <c r="J63" s="7">
-        <v>15</v>
-      </c>
-      <c r="K63" s="32">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J63" s="30">
+        <v>3</v>
+      </c>
+      <c r="K63" s="30">
         <v>1</v>
       </c>
-      <c r="L63" s="5">
-        <v>35</v>
+      <c r="L63" s="30">
+        <v>3</v>
       </c>
       <c r="M63" s="8">
-        <f t="shared" si="4"/>
-        <v>1.0606060606060606</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O63" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q63" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5828,13 +5824,13 @@
         <v>13</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E64" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5843,41 +5839,41 @@
       <c r="F64" s="7">
         <v>0</v>
       </c>
-      <c r="G64" s="5">
-        <v>37</v>
-      </c>
-      <c r="H64" s="5">
-        <v>14</v>
+      <c r="G64" s="30">
+        <v>53</v>
+      </c>
+      <c r="H64" s="30">
+        <v>5</v>
       </c>
       <c r="I64" s="8">
-        <f t="shared" si="3"/>
-        <v>37.837837837837839</v>
-      </c>
-      <c r="J64" s="7">
-        <v>13</v>
-      </c>
-      <c r="K64" s="32">
-        <v>1</v>
-      </c>
-      <c r="L64" s="5">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>9.433962264150944</v>
+      </c>
+      <c r="J64" s="30">
+        <v>12</v>
+      </c>
+      <c r="K64" s="30">
+        <v>8</v>
+      </c>
+      <c r="L64" s="30">
+        <v>12</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="4"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="7"/>
+        <v>2.4</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O64" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q64" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5886,56 +5882,56 @@
         <v>13</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="E65" s="6" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
       <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5">
-        <v>53</v>
-      </c>
-      <c r="H65" s="5">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G65" s="30">
+        <v>13181</v>
+      </c>
+      <c r="H65" s="30">
+        <v>1226</v>
       </c>
       <c r="I65" s="8">
-        <f t="shared" si="3"/>
-        <v>9.433962264150944</v>
-      </c>
-      <c r="J65" s="7">
-        <v>12</v>
-      </c>
-      <c r="K65" s="32">
-        <v>8</v>
-      </c>
-      <c r="L65" s="5">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>9.3012669751915631</v>
+      </c>
+      <c r="J65" s="30">
+        <v>2250</v>
+      </c>
+      <c r="K65" s="30">
+        <v>80</v>
+      </c>
+      <c r="L65" s="30">
+        <v>2572</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
+        <f t="shared" si="7"/>
+        <v>2.0978792822185972</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="O65" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Klik</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="Q65" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
     </row>
@@ -5944,56 +5940,56 @@
         <v>13</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="E66" s="6" t="str">
-        <f t="shared" ref="E66:E93" si="8">HYPERLINK(D66,"Klik")</f>
+        <f t="shared" ref="E66:E97" si="10">HYPERLINK(D66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F66" s="7">
         <v>2</v>
       </c>
-      <c r="G66" s="5">
-        <v>187</v>
-      </c>
-      <c r="H66" s="5">
-        <v>12</v>
+      <c r="G66" s="30">
+        <v>2259</v>
+      </c>
+      <c r="H66" s="30">
+        <v>205</v>
       </c>
       <c r="I66" s="8">
-        <f t="shared" si="3"/>
-        <v>6.4171122994652405</v>
-      </c>
-      <c r="J66" s="7">
-        <v>12</v>
-      </c>
-      <c r="K66" s="32">
-        <v>5</v>
-      </c>
-      <c r="L66" s="5">
-        <v>21</v>
+        <f t="shared" ref="I66:I97" si="11">100*H66/G66</f>
+        <v>9.0748118636564854</v>
+      </c>
+      <c r="J66" s="30">
+        <v>217</v>
+      </c>
+      <c r="K66" s="30">
+        <v>48</v>
+      </c>
+      <c r="L66" s="30">
+        <v>449</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
+        <f t="shared" ref="M66:M97" si="12">L66/H66</f>
+        <v>2.1902439024390246</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O66" s="6" t="str">
-        <f t="shared" ref="O66:O93" si="9">HYPERLINK(N66,"Klik")</f>
+        <f t="shared" ref="O66:O97" si="13">HYPERLINK(N66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q66" s="6" t="str">
-        <f t="shared" ref="Q66:Q93" si="10">HYPERLINK(P66,"Klik")</f>
+        <f t="shared" ref="Q66:Q97" si="14">HYPERLINK(P66,"Klik")</f>
         <v>Klik</v>
       </c>
     </row>
@@ -6002,56 +5998,56 @@
         <v>13</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="E67" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F67" s="7">
         <v>0</v>
       </c>
-      <c r="G67" s="5">
-        <v>19</v>
-      </c>
-      <c r="H67" s="5">
-        <v>2</v>
+      <c r="G67" s="30">
+        <v>13</v>
+      </c>
+      <c r="H67" s="30">
+        <v>1</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" ref="I67:I93" si="11">100*H67/G67</f>
-        <v>10.526315789473685</v>
-      </c>
-      <c r="J67" s="7">
-        <v>10</v>
-      </c>
-      <c r="K67" s="32">
-        <v>6</v>
-      </c>
-      <c r="L67" s="5">
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J67" s="30">
+        <v>1</v>
+      </c>
+      <c r="K67" s="30">
+        <v>1</v>
+      </c>
+      <c r="L67" s="30">
+        <v>1</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" ref="M67:M90" si="12">L67/H67</f>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="O67" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="Q67" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6060,56 +6056,56 @@
         <v>13</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>Klik</v>
-      </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5">
-        <v>29</v>
-      </c>
-      <c r="H68" s="5">
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>Klik</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="30">
+        <v>1638</v>
+      </c>
+      <c r="H68" s="30">
+        <v>124</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="11"/>
-        <v>24.137931034482758</v>
-      </c>
-      <c r="J68" s="7">
-        <v>8</v>
-      </c>
-      <c r="K68" s="32">
-        <v>8</v>
-      </c>
-      <c r="L68" s="5">
-        <v>36</v>
+        <v>7.57020757020757</v>
+      </c>
+      <c r="J68" s="30">
+        <v>148</v>
+      </c>
+      <c r="K68" s="30">
+        <v>22</v>
+      </c>
+      <c r="L68" s="30">
+        <v>228</v>
       </c>
       <c r="M68" s="8">
         <f t="shared" si="12"/>
-        <v>5.1428571428571432</v>
+        <v>1.8387096774193548</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>441</v>
+        <v>219</v>
       </c>
       <c r="O68" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>438</v>
+        <v>307</v>
       </c>
       <c r="Q68" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6118,56 +6114,56 @@
         <v>13</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="E69" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
-      <c r="G69" s="5">
-        <v>40</v>
-      </c>
-      <c r="H69" s="5">
-        <v>5</v>
+      <c r="G69" s="30">
+        <v>15</v>
+      </c>
+      <c r="H69" s="30">
+        <v>1</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="11"/>
-        <v>12.5</v>
-      </c>
-      <c r="J69" s="7">
-        <v>8</v>
-      </c>
-      <c r="K69" s="32">
-        <v>4</v>
-      </c>
-      <c r="L69" s="5">
-        <v>8</v>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J69" s="30">
+        <v>1</v>
+      </c>
+      <c r="K69" s="30">
+        <v>1</v>
+      </c>
+      <c r="L69" s="30">
+        <v>1</v>
       </c>
       <c r="M69" s="8">
         <f t="shared" si="12"/>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="O69" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="Q69" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6176,56 +6172,56 @@
         <v>13</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>406</v>
+        <v>140</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5">
-        <v>4</v>
-      </c>
-      <c r="H70" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G70" s="30">
+        <v>466</v>
+      </c>
+      <c r="H70" s="30">
+        <v>31</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="J70" s="7">
-        <v>7</v>
-      </c>
-      <c r="K70" s="32">
-        <v>5</v>
-      </c>
-      <c r="L70" s="5">
-        <v>7</v>
+        <v>6.6523605150214591</v>
+      </c>
+      <c r="J70" s="30">
+        <v>73</v>
+      </c>
+      <c r="K70" s="30">
+        <v>15</v>
+      </c>
+      <c r="L70" s="30">
+        <v>78</v>
       </c>
       <c r="M70" s="8">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>2.5161290322580645</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O70" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="Q70" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6243,29 +6239,29 @@
         <v>407</v>
       </c>
       <c r="E71" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="30">
         <v>31</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="30">
         <v>2</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="11"/>
         <v>6.4516129032258061</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="30">
         <v>7</v>
       </c>
-      <c r="K71" s="32">
+      <c r="K71" s="30">
         <v>5</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="30">
         <v>7</v>
       </c>
       <c r="M71" s="8">
@@ -6276,14 +6272,14 @@
         <v>213</v>
       </c>
       <c r="O71" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>301</v>
       </c>
       <c r="Q71" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6292,56 +6288,56 @@
         <v>13</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E72" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F72" s="7">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
-        <v>40</v>
-      </c>
-      <c r="H72" s="5">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G72" s="30">
+        <v>187</v>
+      </c>
+      <c r="H72" s="30">
+        <v>12</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" si="11"/>
-        <v>12.5</v>
-      </c>
-      <c r="J72" s="7">
-        <v>7</v>
-      </c>
-      <c r="K72" s="32">
+        <v>6.4171122994652405</v>
+      </c>
+      <c r="J72" s="30">
+        <v>12</v>
+      </c>
+      <c r="K72" s="30">
         <v>5</v>
       </c>
-      <c r="L72" s="5">
-        <v>10</v>
+      <c r="L72" s="30">
+        <v>21</v>
       </c>
       <c r="M72" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O72" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q72" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6350,56 +6346,56 @@
         <v>13</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>408</v>
+        <v>12</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="E73" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
       </c>
-      <c r="G73" s="5">
-        <v>12</v>
-      </c>
-      <c r="H73" s="5">
-        <v>3</v>
+      <c r="G73" s="30">
+        <v>30656</v>
+      </c>
+      <c r="H73" s="30">
+        <v>1931</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="J73" s="7">
-        <v>6</v>
-      </c>
-      <c r="K73" s="32">
-        <v>2</v>
-      </c>
-      <c r="L73" s="5">
-        <v>7</v>
+        <v>6.2989300626304798</v>
+      </c>
+      <c r="J73" s="30">
+        <v>5012</v>
+      </c>
+      <c r="K73" s="30">
+        <v>150</v>
+      </c>
+      <c r="L73" s="30">
+        <v>6368</v>
       </c>
       <c r="M73" s="8">
         <f t="shared" si="12"/>
-        <v>2.3333333333333335</v>
+        <v>3.2977731745209735</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O73" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q73" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6408,56 +6404,56 @@
         <v>13</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="E74" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F74" s="7">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5">
-        <v>21</v>
-      </c>
-      <c r="H74" s="5">
         <v>1</v>
+      </c>
+      <c r="G74" s="30">
+        <v>425007</v>
+      </c>
+      <c r="H74" s="30">
+        <v>25884</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="11"/>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="J74" s="7">
-        <v>5</v>
-      </c>
-      <c r="K74" s="32">
-        <v>4</v>
-      </c>
-      <c r="L74" s="5">
-        <v>5</v>
+        <v>6.0902526311331346</v>
+      </c>
+      <c r="J74" s="30">
+        <v>100120</v>
+      </c>
+      <c r="K74" s="30">
+        <v>275</v>
+      </c>
+      <c r="L74" s="30">
+        <v>125681</v>
       </c>
       <c r="M74" s="8">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4.8555478287745322</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="O74" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="Q74" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6466,56 +6462,56 @@
         <v>13</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>409</v>
+        <v>29</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="E75" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5">
-        <v>19</v>
-      </c>
-      <c r="H75" s="5">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G75" s="30">
+        <v>260</v>
+      </c>
+      <c r="H75" s="30">
+        <v>15</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="11"/>
-        <v>21.05263157894737</v>
-      </c>
-      <c r="J75" s="7">
-        <v>5</v>
-      </c>
-      <c r="K75" s="32">
-        <v>2</v>
-      </c>
-      <c r="L75" s="5">
-        <v>5</v>
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="J75" s="30">
+        <v>59</v>
+      </c>
+      <c r="K75" s="30">
+        <v>27</v>
+      </c>
+      <c r="L75" s="30">
+        <v>77</v>
       </c>
       <c r="M75" s="8">
         <f t="shared" si="12"/>
-        <v>1.25</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="O75" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="Q75" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6524,56 +6520,56 @@
         <v>13</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5">
-        <v>6</v>
-      </c>
-      <c r="H76" s="5">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G76" s="30">
+        <v>103</v>
+      </c>
+      <c r="H76" s="30">
+        <v>5</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J76" s="7">
+        <v>4.8543689320388346</v>
+      </c>
+      <c r="J76" s="30">
         <v>4</v>
       </c>
-      <c r="K76" s="32">
+      <c r="K76" s="30">
         <v>2</v>
       </c>
-      <c r="L76" s="5">
-        <v>8</v>
+      <c r="L76" s="30">
+        <v>6</v>
       </c>
       <c r="M76" s="8">
         <f t="shared" si="12"/>
-        <v>1.3333333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="O76" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="Q76" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6582,56 +6578,56 @@
         <v>13</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F77" s="7">
-        <v>2</v>
-      </c>
-      <c r="G77" s="5">
-        <v>103</v>
-      </c>
-      <c r="H77" s="5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G77" s="30">
+        <v>486346</v>
+      </c>
+      <c r="H77" s="30">
+        <v>23471</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="11"/>
-        <v>4.8543689320388346</v>
-      </c>
-      <c r="J77" s="7">
-        <v>4</v>
-      </c>
-      <c r="K77" s="32">
-        <v>2</v>
-      </c>
-      <c r="L77" s="5">
-        <v>6</v>
+        <v>4.8259880825585073</v>
+      </c>
+      <c r="J77" s="30">
+        <v>15341</v>
+      </c>
+      <c r="K77" s="30">
+        <v>129</v>
+      </c>
+      <c r="L77" s="30">
+        <v>31955</v>
       </c>
       <c r="M77" s="8">
         <f t="shared" si="12"/>
-        <v>1.2</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>229</v>
+        <v>1.3614673426781987</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="O77" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q77" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6640,56 +6636,56 @@
         <v>13</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
       </c>
-      <c r="G78" s="5">
-        <v>10</v>
-      </c>
-      <c r="H78" s="5">
+      <c r="G78" s="30">
+        <v>21</v>
+      </c>
+      <c r="H78" s="30">
         <v>1</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="J78" s="7">
-        <v>3</v>
-      </c>
-      <c r="K78" s="32">
-        <v>1</v>
-      </c>
-      <c r="L78" s="5">
-        <v>3</v>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="J78" s="30">
+        <v>5</v>
+      </c>
+      <c r="K78" s="30">
+        <v>4</v>
+      </c>
+      <c r="L78" s="30">
+        <v>5</v>
       </c>
       <c r="M78" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="O78" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="Q78" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6698,56 +6694,56 @@
         <v>13</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>414</v>
+        <v>153</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F79" s="7">
-        <v>0</v>
-      </c>
-      <c r="G79" s="5">
-        <v>9</v>
-      </c>
-      <c r="H79" s="5">
         <v>1</v>
+      </c>
+      <c r="G79" s="30">
+        <v>605</v>
+      </c>
+      <c r="H79" s="30">
+        <v>28</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="11"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="J79" s="7">
-        <v>3</v>
-      </c>
-      <c r="K79" s="32">
-        <v>2</v>
-      </c>
-      <c r="L79" s="5">
-        <v>3</v>
+        <v>4.6280991735537187</v>
+      </c>
+      <c r="J79" s="30">
+        <v>46</v>
+      </c>
+      <c r="K79" s="30">
+        <v>10</v>
+      </c>
+      <c r="L79" s="30">
+        <v>51</v>
       </c>
       <c r="M79" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1.8214285714285714</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O79" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q79" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6756,56 +6752,56 @@
         <v>13</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="5">
-        <v>1</v>
-      </c>
-      <c r="H80" s="5">
-        <v>1</v>
+      <c r="G80" s="30">
+        <v>3226</v>
+      </c>
+      <c r="H80" s="30">
+        <v>147</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J80" s="7">
-        <v>3</v>
-      </c>
-      <c r="K80" s="32">
-        <v>2</v>
-      </c>
-      <c r="L80" s="5">
-        <v>3</v>
+        <v>4.5567265964042161</v>
+      </c>
+      <c r="J80" s="30">
+        <v>204</v>
+      </c>
+      <c r="K80" s="30">
+        <v>50</v>
+      </c>
+      <c r="L80" s="30">
+        <v>263</v>
       </c>
       <c r="M80" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1.7891156462585034</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="O80" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="Q80" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6814,56 +6810,56 @@
         <v>13</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="5">
-        <v>23</v>
-      </c>
-      <c r="H81" s="5">
-        <v>4</v>
+      <c r="G81" s="30">
+        <v>28966</v>
+      </c>
+      <c r="H81" s="30">
+        <v>1215</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="11"/>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="J81" s="7">
-        <v>3</v>
-      </c>
-      <c r="K81" s="32">
-        <v>2</v>
-      </c>
-      <c r="L81" s="5">
-        <v>7</v>
+        <v>4.1945729475937306</v>
+      </c>
+      <c r="J81" s="30">
+        <v>1134</v>
+      </c>
+      <c r="K81" s="30">
+        <v>45</v>
+      </c>
+      <c r="L81" s="30">
+        <v>1843</v>
       </c>
       <c r="M81" s="8">
         <f t="shared" si="12"/>
-        <v>1.75</v>
+        <v>1.5168724279835391</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="O81" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="Q81" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6872,56 +6868,56 @@
         <v>13</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>419</v>
+        <v>76</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F82" s="7">
-        <v>1</v>
-      </c>
-      <c r="G82" s="5">
-        <v>110</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G82" s="30">
+        <v>415</v>
+      </c>
+      <c r="H82" s="30">
+        <v>14</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" si="11"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="J82" s="7">
-        <v>2</v>
-      </c>
-      <c r="K82" s="32">
-        <v>2</v>
-      </c>
-      <c r="L82" s="5">
-        <v>2</v>
+        <v>3.3734939759036147</v>
+      </c>
+      <c r="J82" s="30">
+        <v>63</v>
+      </c>
+      <c r="K82" s="30">
+        <v>26</v>
+      </c>
+      <c r="L82" s="30">
+        <v>65</v>
       </c>
       <c r="M82" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>4.6428571428571432</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="O82" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="Q82" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6930,56 +6926,56 @@
         <v>13</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F83" s="7">
-        <v>1</v>
-      </c>
-      <c r="G83" s="5">
-        <v>183</v>
-      </c>
-      <c r="H83" s="5">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G83" s="30">
+        <v>27854</v>
+      </c>
+      <c r="H83" s="30">
+        <v>932</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="11"/>
-        <v>1.0928961748633881</v>
-      </c>
-      <c r="J83" s="7">
-        <v>2</v>
-      </c>
-      <c r="K83" s="32">
-        <v>1</v>
-      </c>
-      <c r="L83" s="5">
-        <v>2</v>
+        <v>3.3460185251669419</v>
+      </c>
+      <c r="J83" s="30">
+        <v>1976</v>
+      </c>
+      <c r="K83" s="30">
+        <v>98</v>
+      </c>
+      <c r="L83" s="30">
+        <v>2512</v>
       </c>
       <c r="M83" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2.6952789699570814</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="O83" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="Q83" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -6988,56 +6984,56 @@
         <v>13</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F84" s="7">
-        <v>0</v>
-      </c>
-      <c r="G84" s="5">
-        <v>2</v>
-      </c>
-      <c r="H84" s="5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G84" s="30">
+        <v>457</v>
+      </c>
+      <c r="H84" s="30">
+        <v>9</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J84" s="7">
-        <v>2</v>
-      </c>
-      <c r="K84" s="32">
-        <v>2</v>
-      </c>
-      <c r="L84" s="5">
-        <v>2</v>
+        <v>1.9693654266958425</v>
+      </c>
+      <c r="J84" s="30">
+        <v>20</v>
+      </c>
+      <c r="K84" s="30">
+        <v>15</v>
+      </c>
+      <c r="L84" s="30">
+        <v>28</v>
       </c>
       <c r="M84" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3.1111111111111112</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="O84" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="Q84" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7046,56 +7042,56 @@
         <v>13</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>420</v>
+        <v>161</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F85" s="7">
-        <v>1</v>
-      </c>
-      <c r="G85" s="5">
-        <v>15</v>
-      </c>
-      <c r="H85" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G85" s="30">
+        <v>194097</v>
+      </c>
+      <c r="H85" s="30">
+        <v>3397</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" si="11"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="J85" s="7">
-        <v>1</v>
-      </c>
-      <c r="K85" s="32">
-        <v>1</v>
-      </c>
-      <c r="L85" s="5">
-        <v>1</v>
+        <v>1.7501558499100964</v>
+      </c>
+      <c r="J85" s="30">
+        <v>6306</v>
+      </c>
+      <c r="K85" s="30">
+        <v>168</v>
+      </c>
+      <c r="L85" s="30">
+        <v>8288</v>
       </c>
       <c r="M85" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>169</v>
+        <v>2.4397998233735647</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="O85" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="Q85" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7104,56 +7100,56 @@
         <v>13</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>422</v>
+        <v>124</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>Klik</v>
-      </c>
-      <c r="F86" s="7">
-        <v>0</v>
-      </c>
-      <c r="G86" s="5">
-        <v>13</v>
-      </c>
-      <c r="H86" s="5">
+        <f t="shared" si="10"/>
+        <v>Klik</v>
+      </c>
+      <c r="F86" s="5">
         <v>1</v>
+      </c>
+      <c r="G86" s="30">
+        <v>195</v>
+      </c>
+      <c r="H86" s="30">
+        <v>3</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="11"/>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="J86" s="7">
-        <v>1</v>
-      </c>
-      <c r="K86" s="32">
-        <v>1</v>
-      </c>
-      <c r="L86" s="5">
-        <v>1</v>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="J86" s="30">
+        <v>79</v>
+      </c>
+      <c r="K86" s="30">
+        <v>47</v>
+      </c>
+      <c r="L86" s="30">
+        <v>79</v>
       </c>
       <c r="M86" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>186</v>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="N86" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="O86" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>274</v>
+        <v>440</v>
       </c>
       <c r="Q86" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7162,56 +7158,56 @@
         <v>13</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="5">
-        <v>7</v>
-      </c>
-      <c r="H87" s="5">
         <v>1</v>
+      </c>
+      <c r="G87" s="30">
+        <v>5004</v>
+      </c>
+      <c r="H87" s="30">
+        <v>73</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" si="11"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="J87" s="7">
-        <v>1</v>
-      </c>
-      <c r="K87" s="32">
-        <v>1</v>
-      </c>
-      <c r="L87" s="5">
-        <v>1</v>
+        <v>1.4588329336530776</v>
+      </c>
+      <c r="J87" s="30">
+        <v>32</v>
+      </c>
+      <c r="K87" s="30">
+        <v>6</v>
+      </c>
+      <c r="L87" s="30">
+        <v>102</v>
       </c>
       <c r="M87" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.3972602739726028</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="O87" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Q87" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7220,56 +7216,56 @@
         <v>13</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="5">
-        <v>5</v>
-      </c>
-      <c r="H88" s="5">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G88" s="30">
+        <v>183</v>
+      </c>
+      <c r="H88" s="30">
+        <v>2</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="J88" s="7">
+        <v>1.0928961748633881</v>
+      </c>
+      <c r="J88" s="30">
+        <v>2</v>
+      </c>
+      <c r="K88" s="30">
         <v>1</v>
       </c>
-      <c r="K88" s="32">
-        <v>1</v>
-      </c>
-      <c r="L88" s="5">
-        <v>3</v>
+      <c r="L88" s="30">
+        <v>2</v>
       </c>
       <c r="M88" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O88" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q88" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7278,56 +7274,56 @@
         <v>13</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E89" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F89" s="7">
-        <v>0</v>
-      </c>
-      <c r="G89" s="5">
-        <v>3</v>
-      </c>
-      <c r="H89" s="5">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G89" s="30">
+        <v>110</v>
+      </c>
+      <c r="H89" s="30">
+        <v>1</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J89" s="7">
-        <v>1</v>
-      </c>
-      <c r="K89" s="32">
-        <v>1</v>
-      </c>
-      <c r="L89" s="5">
-        <v>3</v>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="J89" s="30">
+        <v>2</v>
+      </c>
+      <c r="K89" s="30">
+        <v>2</v>
+      </c>
+      <c r="L89" s="30">
+        <v>2</v>
       </c>
       <c r="M89" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O89" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q89" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7336,56 +7332,56 @@
         <v>13</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>425</v>
+        <v>84</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="E90" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F90" s="7">
-        <v>0</v>
-      </c>
-      <c r="G90" s="5">
         <v>1</v>
       </c>
-      <c r="H90" s="5">
-        <v>1</v>
+      <c r="G90" s="30">
+        <v>20999</v>
+      </c>
+      <c r="H90" s="30">
+        <v>75</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J90" s="7">
-        <v>1</v>
-      </c>
-      <c r="K90" s="32">
-        <v>1</v>
-      </c>
-      <c r="L90" s="5">
-        <v>1</v>
+        <v>0.35715986475546457</v>
+      </c>
+      <c r="J90" s="30">
+        <v>62</v>
+      </c>
+      <c r="K90" s="30">
+        <v>11</v>
+      </c>
+      <c r="L90" s="30">
+        <v>95</v>
       </c>
       <c r="M90" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="O90" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="Q90" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7403,46 +7399,46 @@
         <v>428</v>
       </c>
       <c r="E91" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F91" s="7">
         <v>1</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="30">
         <v>11</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="30">
         <v>0</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="30">
         <v>0</v>
       </c>
-      <c r="K91" s="32">
+      <c r="K91" s="30">
         <v>0</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="30">
         <v>0</v>
       </c>
-      <c r="M91" s="30" t="s">
-        <v>478</v>
+      <c r="M91" s="29" t="s">
+        <v>476</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>245</v>
       </c>
       <c r="O91" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>333</v>
       </c>
       <c r="Q91" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7460,46 +7456,46 @@
         <v>426</v>
       </c>
       <c r="E92" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F92" s="7">
         <v>0</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="30">
         <v>2</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="30">
         <v>0</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="30">
         <v>0</v>
       </c>
-      <c r="K92" s="32">
+      <c r="K92" s="30">
         <v>0</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92" s="30">
         <v>0</v>
       </c>
-      <c r="M92" s="30" t="s">
-        <v>478</v>
+      <c r="M92" s="29" t="s">
+        <v>476</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>173</v>
       </c>
       <c r="O92" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>261</v>
       </c>
       <c r="Q92" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
@@ -7517,51 +7513,55 @@
         <v>427</v>
       </c>
       <c r="E93" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Klik</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="30">
         <v>1</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="30">
         <v>0</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="30">
         <v>0</v>
       </c>
-      <c r="K93" s="32">
+      <c r="K93" s="30">
         <v>0</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93" s="30">
         <v>0</v>
       </c>
-      <c r="M93" s="30" t="s">
-        <v>478</v>
+      <c r="M93" s="29" t="s">
+        <v>476</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>198</v>
       </c>
       <c r="O93" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>286</v>
       </c>
       <c r="Q93" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Klik</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="5"/>
+      <c r="G94" s="30">
+        <f>SUM(G2:G93)</f>
+        <v>1325265</v>
+      </c>
     </row>
     <row r="95" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="5"/>
@@ -7691,13 +7691,13 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q136">
-    <sortCondition descending="1" ref="J2:J136"/>
+    <sortCondition descending="1" ref="I2:I136"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{53104B37-4DEF-4492-A65C-3CA25C2C47C6}"/>
+    <hyperlink ref="N77" r:id="rId1" xr:uid="{53104B37-4DEF-4492-A65C-3CA25C2C47C6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7708,8 +7708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD1F53-4F28-4814-B5C8-BDDBAE8A22E5}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7831,10 +7831,10 @@
     </row>
     <row r="9" spans="1:5" s="26" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>464</v>
@@ -7868,12 +7868,12 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="26" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>466</v>
@@ -7918,7 +7918,7 @@
         <v>339</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>327</v>

--- a/reports/GLAMorousToHTML_keyfigures_NDE_04092024.xlsx
+++ b/reports/GLAMorousToHTML_keyfigures_NDE_04092024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KB-OPEN\___WikimediaKB\KPIs etc\WikimediaKPIs\GlamorousToHTML\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC95A004-70CD-4137-BD20-A12A8F07332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEA2A0-DBD5-4FDC-9767-AB5E6C31E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyfigures_NDE_04092024" sheetId="1" r:id="rId1"/>
@@ -2149,7 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
@@ -5949,7 +5949,7 @@
         <v>362</v>
       </c>
       <c r="E66" s="6" t="str">
-        <f t="shared" ref="E66:E97" si="10">HYPERLINK(D66,"Klik")</f>
+        <f t="shared" ref="E66:E93" si="10">HYPERLINK(D66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F66" s="7">
@@ -5962,7 +5962,7 @@
         <v>205</v>
       </c>
       <c r="I66" s="8">
-        <f t="shared" ref="I66:I97" si="11">100*H66/G66</f>
+        <f t="shared" ref="I66:I93" si="11">100*H66/G66</f>
         <v>9.0748118636564854</v>
       </c>
       <c r="J66" s="30">
@@ -5975,21 +5975,21 @@
         <v>449</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" ref="M66:M97" si="12">L66/H66</f>
+        <f t="shared" ref="M66:M90" si="12">L66/H66</f>
         <v>2.1902439024390246</v>
       </c>
       <c r="N66" s="5" t="s">
         <v>216</v>
       </c>
       <c r="O66" s="6" t="str">
-        <f t="shared" ref="O66:O97" si="13">HYPERLINK(N66,"Klik")</f>
+        <f t="shared" ref="O66:O93" si="13">HYPERLINK(N66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>304</v>
       </c>
       <c r="Q66" s="6" t="str">
-        <f t="shared" ref="Q66:Q97" si="14">HYPERLINK(P66,"Klik")</f>
+        <f t="shared" ref="Q66:Q93" si="14">HYPERLINK(P66,"Klik")</f>
         <v>Klik</v>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD1F53-4F28-4814-B5C8-BDDBAE8A22E5}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
